--- a/biology/Zoologie/Homard_américain/Homard_américain.xlsx
+++ b/biology/Zoologie/Homard_américain/Homard_américain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homard_am%C3%A9ricain</t>
+          <t>Homard_américain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homarus americanus
 Le homard américain (Homarus americanus), appelé aussi homard canadien, est une espèce de homards appartenant au genre Homarus. C'est un crustacé décapode.
 Une gestion rigoureuse de la ressource par un contrôle de l'effort de pêche (licences, nombre de casiers, périodes de pêche déterminées, taille minimum selon la zone, rejet obligatoire des femelles grainées) permet une pêche régulière et abondante, à l'inverse du homard européen. La pêche ne fait pas l’objet de TAC (Total Admissible de Capture). La majorité des 10 000 permis accordés au Canada concernent la pêche en eau peu profonde, soit à une profondeur de moins de 40 mètres et à moins de 15 kilomètres de côtes. Des permis de pêche hauturière, à une profondeur de 200 mètres, peuvent aussi être alloués.
-On pêche approximativement 105 000 tonnes de homard au Canada[1], et 61 000 tonnes aux États-Unis[2].
+On pêche approximativement 105 000 tonnes de homard au Canada, et 61 000 tonnes aux États-Unis.
 Il est beaucoup moins cher que le homard européen et sa saveur est différente.
-Le homard canadien peut atteindre 60 cm, peser 18 kilogrammes et être âgé de 50 ans. Au Canada, les plus grandes populations sont concentrées au sud du golfe du Saint-Laurent[3].
+Le homard canadien peut atteindre 60 cm, peser 18 kilogrammes et être âgé de 50 ans. Au Canada, les plus grandes populations sont concentrées au sud du golfe du Saint-Laurent.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Homard_am%C3%A9ricain</t>
+          <t>Homard_américain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Homard</t>
         </is>
